--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,29</t>
+          <t>-2,99; -0,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; -0,37</t>
+          <t>-2,93; -0,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,27</t>
+          <t>-2,26; 1,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -2,58</t>
+          <t>-5,28; -2,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -0,93</t>
+          <t>-4,17; -0,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -2,2</t>
+          <t>-4,78; -2,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -1,93</t>
+          <t>-3,87; -1,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -1,08</t>
+          <t>-3,31; -1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -1,19</t>
+          <t>-3,36; -1,21</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,17; -9,47</t>
+          <t>-75,9; -17,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,31; -12,32</t>
+          <t>-77,88; -11,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 56,0</t>
+          <t>-62,0; 48,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,17; -57,65</t>
+          <t>-86,57; -56,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,81; -19,54</t>
+          <t>-68,72; -19,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,08; -49,07</t>
+          <t>-79,55; -46,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,12; -51,17</t>
+          <t>-79,4; -52,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,69; -29,72</t>
+          <t>-68,88; -29,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,1; -33,43</t>
+          <t>-70,27; -31,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; -0,27</t>
+          <t>-2,36; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; -0,57</t>
+          <t>-2,54; -0,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,36</t>
+          <t>-3,25; -1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,05</t>
+          <t>-3,71; -1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -1,12</t>
+          <t>-3,59; -1,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -2,26</t>
+          <t>-4,54; -2,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -1,02</t>
+          <t>-2,56; -1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -1,09</t>
+          <t>-2,7; -1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -2,08</t>
+          <t>-3,49; -2,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,82; -11,21</t>
+          <t>-66,33; -6,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,79; -22,9</t>
+          <t>-70,88; -20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,25; -57,1</t>
+          <t>-90,56; -59,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,9; -26,89</t>
+          <t>-70,14; -29,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,31; -30,35</t>
+          <t>-68,26; -29,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,77; -61,51</t>
+          <t>-85,61; -62,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,53; -32,31</t>
+          <t>-62,59; -29,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,02; -34,49</t>
+          <t>-65,35; -36,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -67,03</t>
+          <t>-84,16; -65,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,59</t>
+          <t>-2,93; 1,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,09</t>
+          <t>-3,9; -0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,45</t>
+          <t>-3,13; 0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -1,34</t>
+          <t>-5,88; -1,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -0,41</t>
+          <t>-4,92; -0,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,75</t>
+          <t>-4,96; -0,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,52</t>
+          <t>-3,64; -0,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,91</t>
+          <t>-3,72; -0,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,58</t>
+          <t>-3,23; -0,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,38; 92,53</t>
+          <t>-71,09; 65,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,88; 33,71</t>
+          <t>-89,35; 5,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 30,6</t>
+          <t>-74,63; 32,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-92,43; -33,47</t>
+          <t>-93,02; -37,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,31; -11,6</t>
+          <t>-84,94; -16,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,27; -17,17</t>
+          <t>-81,17; -13,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,65; -13,05</t>
+          <t>-77,07; -11,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,89; -28,03</t>
+          <t>-80,16; -23,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,08; -14,51</t>
+          <t>-69,17; -10,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,55</t>
+          <t>-2,11; -0,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,85</t>
+          <t>-2,34; -0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -1,08</t>
+          <t>-2,56; -1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -2,3</t>
+          <t>-4,06; -2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -1,73</t>
+          <t>-3,46; -1,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; -2,59</t>
+          <t>-4,29; -2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -1,59</t>
+          <t>-2,77; -1,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -1,5</t>
+          <t>-2,65; -1,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,12; -2,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,4; -20,44</t>
+          <t>-61,74; -20,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,21; -32,33</t>
+          <t>-67,75; -30,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,79; -41,7</t>
+          <t>-74,27; -43,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,66; -52,81</t>
+          <t>-75,11; -53,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,14; -37,51</t>
+          <t>-66,07; -40,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,1; -61,49</t>
+          <t>-80,05; -63,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,89; -45,66</t>
+          <t>-66,05; -45,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,04; -42,5</t>
+          <t>-63,18; -42,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,08; -59,62</t>
+          <t>-74,62; -58,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,47</t>
+          <t>-2,95; -0,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,38</t>
+          <t>-2,96; -0,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,11</t>
+          <t>-2,16; 1,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -2,56</t>
+          <t>-5,15; -2,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; -0,93</t>
+          <t>-4,22; -0,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -2,16</t>
+          <t>-4,87; -2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,89</t>
+          <t>-3,89; -1,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -1,12</t>
+          <t>-3,3; -1,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -1,21</t>
+          <t>-3,36; -1,32</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,9; -17,13</t>
+          <t>-76,29; -16,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,88; -11,65</t>
+          <t>-78,38; -15,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 48,54</t>
+          <t>-60,78; 52,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,57; -56,96</t>
+          <t>-86,36; -55,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,72; -19,67</t>
+          <t>-69,82; -16,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,55; -46,33</t>
+          <t>-79,53; -46,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,4; -52,14</t>
+          <t>-79,93; -50,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,88; -29,9</t>
+          <t>-67,17; -29,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,27; -31,63</t>
+          <t>-69,7; -34,36</t>
         </is>
       </c>
     </row>
@@ -906,42 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; -0,53</t>
+          <t>-2,47; -0,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; -1,39</t>
+          <t>-3,22; -1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -1,11</t>
+          <t>-3,52; -1,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -1,13</t>
+          <t>-3,63; -1,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -2,3</t>
+          <t>-4,54; -2,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -1,0</t>
+          <t>-2,57; -1,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -1,11</t>
+          <t>-2,66; -1,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -2,04</t>
+          <t>-3,57; -2,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,33; -6,98</t>
+          <t>-68,1; -11,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,88; -20,84</t>
+          <t>-70,98; -17,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,56; -59,47</t>
+          <t>-90,26; -58,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,14; -29,42</t>
+          <t>-69,3; -29,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,26; -29,59</t>
+          <t>-69,51; -30,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,61; -62,71</t>
+          <t>-85,17; -62,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,59; -29,22</t>
+          <t>-62,9; -31,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,35; -36,24</t>
+          <t>-64,45; -35,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,16; -65,85</t>
+          <t>-84,48; -66,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,38</t>
+          <t>-2,72; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,24</t>
+          <t>-3,72; -0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,48</t>
+          <t>-3,19; 0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,43</t>
+          <t>-5,54; -1,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -0,54</t>
+          <t>-5,25; -0,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -0,54</t>
+          <t>-5,12; -0,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,47</t>
+          <t>-3,49; -0,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,87</t>
+          <t>-3,73; -0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,53</t>
+          <t>-3,18; -0,42</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 65,84</t>
+          <t>-68,78; 91,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,35; 5,32</t>
+          <t>-88,94; 5,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,63; 32,97</t>
+          <t>-74,44; 50,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,02; -37,2</t>
+          <t>-91,93; -26,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,94; -16,36</t>
+          <t>-85,61; -8,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,17; -13,42</t>
+          <t>-81,46; -19,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,07; -11,05</t>
+          <t>-75,01; -16,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -23,74</t>
+          <t>-79,88; -23,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,17; -10,86</t>
+          <t>-70,23; -14,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,53</t>
+          <t>-2,06; -0,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; -0,85</t>
+          <t>-2,3; -0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -1,12</t>
+          <t>-2,56; -1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -2,29</t>
+          <t>-3,85; -2,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,68</t>
+          <t>-3,4; -1,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -2,67</t>
+          <t>-4,21; -2,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -1,62</t>
+          <t>-2,75; -1,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; -1,53</t>
+          <t>-2,67; -1,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -2,09</t>
+          <t>-3,09; -2,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,74; -20,47</t>
+          <t>-61,14; -21,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,75; -30,74</t>
+          <t>-68,61; -34,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -43,96</t>
+          <t>-74,91; -44,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,11; -53,57</t>
+          <t>-75,06; -52,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,07; -40,46</t>
+          <t>-65,58; -39,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,05; -63,02</t>
+          <t>-79,96; -62,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,05; -45,83</t>
+          <t>-65,56; -45,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,18; -42,82</t>
+          <t>-62,81; -42,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,62; -58,51</t>
+          <t>-75,02; -59,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,43</t>
+          <t>-2,95; -0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; -0,42</t>
+          <t>-3,05; -0,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,09</t>
+          <t>-2,11; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,53</t>
+          <t>-5,24; -2,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; -0,89</t>
+          <t>-4,16; -0,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -2,12</t>
+          <t>-4,84; -2,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -1,91</t>
+          <t>-3,86; -1,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -1,19</t>
+          <t>-3,27; -1,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -1,32</t>
+          <t>-3,31; -1,19</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,29; -16,73</t>
+          <t>-76,17; -9,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; -15,08</t>
+          <t>-79,31; -12,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 52,16</t>
+          <t>-59,42; 56,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -55,66</t>
+          <t>-86,17; -57,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -16,68</t>
+          <t>-69,81; -19,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,53; -46,22</t>
+          <t>-80,08; -49,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,93; -50,81</t>
+          <t>-79,12; -51,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,17; -29,97</t>
+          <t>-67,69; -29,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -34,36</t>
+          <t>-69,1; -33,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,27</t>
+          <t>-2,28; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,47</t>
+          <t>-2,44; -0,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -1,38</t>
+          <t>-3,19; -1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -1,07</t>
+          <t>-3,54; -1,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -1,16</t>
+          <t>-3,63; -1,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -2,37</t>
+          <t>-4,51; -2,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; -1,03</t>
+          <t>-2,64; -1,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; -1,12</t>
+          <t>-2,62; -1,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -2,11</t>
+          <t>-3,51; -2,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,1; -11,34</t>
+          <t>-65,82; -11,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -17,94</t>
+          <t>-69,79; -22,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,26; -58,26</t>
+          <t>-89,25; -57,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,3; -29,15</t>
+          <t>-68,9; -26,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,51; -30,04</t>
+          <t>-69,31; -30,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,17; -62,66</t>
+          <t>-85,77; -61,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,9; -31,39</t>
+          <t>-63,53; -32,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,45; -35,73</t>
+          <t>-64,02; -34,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,48; -66,08</t>
+          <t>-84,53; -67,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,58</t>
+          <t>-2,72; 1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,07</t>
+          <t>-3,77; 0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,74</t>
+          <t>-3,4; 0,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,25</t>
+          <t>-5,61; -1,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -0,54</t>
+          <t>-4,92; -0,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,69</t>
+          <t>-5,09; -0,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,54</t>
+          <t>-3,52; -0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,77</t>
+          <t>-3,73; -0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,42</t>
+          <t>-3,33; -0,58</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 91,07</t>
+          <t>-67,38; 92,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 5,74</t>
+          <t>-87,88; 33,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,44; 50,65</t>
+          <t>-75,47; 30,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,93; -26,58</t>
+          <t>-92,43; -33,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,61; -8,72</t>
+          <t>-85,31; -11,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,46; -19,06</t>
+          <t>-79,27; -17,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -16,51</t>
+          <t>-77,65; -13,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,88; -23,52</t>
+          <t>-79,89; -28,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,23; -14,32</t>
+          <t>-70,08; -14,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; -0,53</t>
+          <t>-2,05; -0,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; -0,89</t>
+          <t>-2,24; -0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -1,13</t>
+          <t>-2,56; -1,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -2,19</t>
+          <t>-3,95; -2,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,71</t>
+          <t>-3,51; -1,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -2,61</t>
+          <t>-4,22; -2,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -1,63</t>
+          <t>-2,75; -1,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -1,53</t>
+          <t>-2,63; -1,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -2,05</t>
+          <t>-3,15; -2,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,14; -21,39</t>
+          <t>-61,4; -20,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -34,11</t>
+          <t>-67,21; -32,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,91; -44,47</t>
+          <t>-74,79; -41,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,06; -52,26</t>
+          <t>-74,66; -52,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,58; -39,55</t>
+          <t>-65,14; -37,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,96; -62,5</t>
+          <t>-80,1; -61,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -45,05</t>
+          <t>-65,89; -45,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -42,41</t>
+          <t>-63,04; -42,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,02; -59,64</t>
+          <t>-75,08; -59,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,27</t>
+          <t>-2,1; 1,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -2,2</t>
+          <t>-4,82; -2,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -1,19</t>
+          <t>-3,28; -1,16</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>-22,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,24%</t>
+          <t>-66,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-54,12%</t>
+          <t>-53,17%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 56,0</t>
+          <t>-58,96; 58,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,08; -49,07</t>
+          <t>-79,77; -48,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,1; -33,43</t>
+          <t>-68,56; -32,44</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-2,84</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,36</t>
+          <t>-3,26; -1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -2,26</t>
+          <t>-4,6; -2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -2,08</t>
+          <t>-3,61; -2,18</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-77,89%</t>
+          <t>-79,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,85%</t>
+          <t>-78,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-76,99%</t>
+          <t>-78,88%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,25; -57,1</t>
+          <t>-90,31; -59,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,77; -61,51</t>
+          <t>-87,7; -65,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -67,03</t>
+          <t>-86,12; -69,19</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,85</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,45</t>
+          <t>-3,41; 0,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,75</t>
+          <t>-5,1; -0,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,58</t>
+          <t>-3,33; -0,59</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,76%</t>
+          <t>-40,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,57%</t>
+          <t>-59,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,85%</t>
+          <t>-51,14%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 30,6</t>
+          <t>-75,77; 32,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,27; -17,17</t>
+          <t>-79,5; -18,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,08; -14,51</t>
+          <t>-70,57; -14,66</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,66</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -1,08</t>
+          <t>-2,65; -1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; -2,59</t>
+          <t>-4,29; -2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,2; -2,14</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,32%</t>
+          <t>-63,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-72,19%</t>
+          <t>-73,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-67,98%</t>
+          <t>-69,59%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,79; -41,7</t>
+          <t>-76,44; -45,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,1; -61,49</t>
+          <t>-81,55; -63,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,08; -59,62</t>
+          <t>-76,84; -61,1</t>
         </is>
       </c>
     </row>
